--- a/Onur/BOM.xlsx
+++ b/Onur/BOM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oztas/Desktop/projects/EE464-Term-Project-/Onur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EA5ADE-CA5A-3C4C-8DF0-73B9D4AE88CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848C475-A246-B94B-BE8A-42EA7E0BF029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{A0206BD3-C765-F849-A781-B0CB3CD00ED6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="11340" windowHeight="16260" xr2:uid="{A0206BD3-C765-F849-A781-B0CB3CD00ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Component</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>LTC3723EGN-1#PBF</t>
   </si>
   <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>Price($)</t>
-  </si>
-  <si>
     <t>ESR</t>
   </si>
   <si>
@@ -126,17 +120,95 @@
     <t>Vf</t>
   </si>
   <si>
-    <t>8nH</t>
-  </si>
-  <si>
-    <t>1.05V</t>
+    <t>Price($) (unit price for purchase of 1000)</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>90150</t>
+  </si>
+  <si>
+    <t>GMC21CG201J100NT</t>
+  </si>
+  <si>
+    <t>PC47EER28L-Z</t>
+  </si>
+  <si>
+    <t>Transformer Core</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>STPS30H100DJF-TR</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>MOC207M</t>
+  </si>
+  <si>
+    <t>Optoisolator</t>
+  </si>
+  <si>
+    <t>LT1431CS8#TRPBF</t>
+  </si>
+  <si>
+    <t>Voltage Reference</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>MC04X5R104K25NT</t>
+  </si>
+  <si>
+    <t>Output Inductor</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>APT7F100B</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Heatsink 1</t>
+  </si>
+  <si>
+    <t>Heatsink 2</t>
+  </si>
+  <si>
+    <t>V8813W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +222,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,13 +304,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,17 +630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CB13F1-D6A1-D145-B838-0F68934DCFAD}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="24.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -571,35 +653,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1">
-        <v>10.9</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>9.4999999999999998E-3</v>
@@ -607,10 +689,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>3.8E-3</v>
@@ -618,10 +700,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>2.6199999999999999E-3</v>
@@ -629,10 +711,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>1.9E-3</v>
@@ -640,10 +722,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>3.2000000000000002E-3</v>
@@ -651,24 +733,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>0.38</v>
+        <v>0.10051</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>2.8E-3</v>
@@ -676,10 +758,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>1.8E-3</v>
@@ -687,10 +769,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>4.7999999999999996E-3</v>
@@ -698,115 +780,286 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>1.9E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1532</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.1532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.10051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.4914</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.4914</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="1">
-        <f>SUM(C2:C28)</f>
-        <v>11.312319999999998</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.1070000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.46717999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.46717999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1">
+        <f>SUM(C2:C43)</f>
+        <v>18.997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Onur/BOM.xlsx
+++ b/Onur/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oztas/Desktop/projects/EE464-Term-Project-/Onur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1848C475-A246-B94B-BE8A-42EA7E0BF029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D048E9-5EFE-6445-BB7D-D4DF80052746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="11340" windowHeight="16260" xr2:uid="{A0206BD3-C765-F849-A781-B0CB3CD00ED6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15760" windowHeight="16260" xr2:uid="{A0206BD3-C765-F849-A781-B0CB3CD00ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Component</t>
   </si>
@@ -180,18 +180,12 @@
     <t>MC04X5R104K25NT</t>
   </si>
   <si>
-    <t>Output Inductor</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
-    <t>APT7F100B</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -201,7 +195,22 @@
     <t>Heatsink 2</t>
   </si>
   <si>
-    <t>V8813W</t>
+    <t>C3M0350120D</t>
+  </si>
+  <si>
+    <t>Thermal Pad</t>
+  </si>
+  <si>
+    <t>Q3-0.005-00-114</t>
+  </si>
+  <si>
+    <t>513301B02500G</t>
+  </si>
+  <si>
+    <t>Output Inductor Core</t>
+  </si>
+  <si>
+    <t>0W41305TC</t>
   </si>
 </sst>
 </file>
@@ -630,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CB13F1-D6A1-D145-B838-0F68934DCFAD}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C31" sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,6 +852,9 @@
       <c r="C17" s="1">
         <v>0.10051</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -854,9 +866,6 @@
       <c r="C18" s="1">
         <v>0.95760000000000001</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -921,143 +930,94 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1">
-        <v>3.1070000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1">
-        <v>3.1070000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
-        <v>0.46717999999999998</v>
+        <v>0.83992</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.83992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.46717999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="1">
-        <f>SUM(C2:C43)</f>
-        <v>18.997</v>
+      <c r="A31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="1">
+        <f>SUM(C2:C30)</f>
+        <v>22.628480000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
